--- a/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
+++ b/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165DAE8-513A-4DEC-A008-A4203E444888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD7B97-C3DF-4688-AA68-2E0AA23BA1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
     <t>lk5i4sa</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -336,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -482,7 +482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -624,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
+++ b/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B904D3DE-3E94-415F-9CB7-8B9F5D470550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E383A2-152F-4349-B466-71195A391E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <t>ภัยที่ผู้รับประกันภัยรับเสี่ยง</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
@@ -269,7 +266,10 @@
     <t>lk5i4sa</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -336,9 +336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,7 +376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -482,7 +482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -624,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,8 +635,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,13 +691,13 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>16</v>
@@ -848,13 +848,13 @@
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -892,7 +892,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>56</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="AP2" s="2"/>
       <c r="AR2" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="3"/>
@@ -958,13 +958,13 @@
         <v>52</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>

--- a/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
+++ b/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E383A2-152F-4349-B466-71195A391E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7E8AA-44C5-4D70-B4F1-33454F03B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
+++ b/Data Files/Input Validation/42. number/Auto_Number_C13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7E8AA-44C5-4D70-B4F1-33454F03B232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E65E07-19E5-4890-8BD2-8AD295853441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
